--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="0" windowWidth="28360" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="comoarison" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comoarison!$B$1:$B$260</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="419">
   <si>
     <t>Andesta2019</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ABSolute value insertion</t>
   </si>
   <si>
-    <t>Not included because signed integers are rare</t>
-  </si>
-  <si>
     <t>AOR</t>
   </si>
   <si>
@@ -238,1052 +238,1065 @@
     <t>Transfer to Call Replacement</t>
   </si>
   <si>
+    <t>TSR</t>
+  </si>
+  <si>
+    <t>Transfer to Send Replacement</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>Send to Call Replacement</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Send to Transfer Replacement</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>Call to Send Replacement</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>Call to Transfer Replacement</t>
+  </si>
+  <si>
+    <t>ARevR</t>
+  </si>
+  <si>
+    <t>Assert to Revert Replacement</t>
+  </si>
+  <si>
+    <t>AReqR</t>
+  </si>
+  <si>
+    <t>Assert to Require Replacement</t>
+  </si>
+  <si>
+    <t>RevReqR</t>
+  </si>
+  <si>
+    <t>Revert to Require Replacement</t>
+  </si>
+  <si>
+    <t>RevAR</t>
+  </si>
+  <si>
+    <t>Revert to Assert Replacement</t>
+  </si>
+  <si>
+    <t>ReqAR</t>
+  </si>
+  <si>
+    <t>Require to Assert Replacement</t>
+  </si>
+  <si>
+    <t>ReqRevR</t>
+  </si>
+  <si>
+    <t>Require to Revert Replacement</t>
+  </si>
+  <si>
+    <t>AReq</t>
+  </si>
+  <si>
+    <t>Add Require</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Add Assert</t>
+  </si>
+  <si>
+    <t>ARev</t>
+  </si>
+  <si>
+    <t>Add Revert</t>
+  </si>
+  <si>
+    <t>DReq</t>
+  </si>
+  <si>
+    <t>Delete Require</t>
+  </si>
+  <si>
+    <t>DRev</t>
+  </si>
+  <si>
+    <t>Delete Revert</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Delete Assert</t>
+  </si>
+  <si>
+    <t>RAR</t>
+  </si>
+  <si>
+    <t>TMR</t>
+  </si>
+  <si>
+    <t>Tx.origin to Msg.sender Replacement</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>Msg.sender to Tx.origin Replacement</t>
+  </si>
+  <si>
+    <t>RSF</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>LR_A</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>Change Address to another Address</t>
+  </si>
+  <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>Increase and Decrease in Gas amount</t>
+  </si>
+  <si>
+    <t>CCV</t>
+  </si>
+  <si>
+    <t>Change in any Constant Value</t>
+  </si>
+  <si>
+    <t>MORD</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>MORD does not replace by true/false but by other modifiers</t>
+  </si>
+  <si>
+    <t>CMF</t>
+  </si>
+  <si>
+    <t>CCN</t>
+  </si>
+  <si>
+    <t>Change Constructor Name to something else</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>Bugrara2019</t>
+  </si>
+  <si>
+    <t>See https://www.kspec.io/simplemultisig/tests.html</t>
+  </si>
+  <si>
+    <t>Manual mutations of EVM code, ABI encodings and public key operations.</t>
+  </si>
+  <si>
+    <t>Chapman2019</t>
+  </si>
+  <si>
+    <t>SCEC</t>
+  </si>
+  <si>
+    <t>Switch Call Expression Casting</t>
+  </si>
+  <si>
+    <t>MALNZ</t>
+  </si>
+  <si>
+    <t>Modify Address Literal to Non-Zero</t>
+  </si>
+  <si>
+    <t>MALZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Address Literal to Zero </t>
+  </si>
+  <si>
+    <t>MDTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Transfer Value </t>
+  </si>
+  <si>
+    <t>MDSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Send Value </t>
+  </si>
+  <si>
+    <t>MDVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Call Value </t>
+  </si>
+  <si>
+    <t>TRS, TRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer ==&gt; [ Send, Call] </t>
+  </si>
+  <si>
+    <t>STR, SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send ==&gt; [Transfer, Call] </t>
+  </si>
+  <si>
+    <t>CTR, CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call ==&gt; [Transfer, Send] </t>
+  </si>
+  <si>
+    <t>RSDC</t>
+  </si>
+  <si>
+    <t>Remove Selfdestruct Call</t>
+  </si>
+  <si>
+    <t>ISDC</t>
+  </si>
+  <si>
+    <t>Insert Selfdestruct Call</t>
+  </si>
+  <si>
+    <t>RSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Suicide Call </t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>Insert Suicide Call</t>
+  </si>
+  <si>
+    <t>RRQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Require Statement </t>
+  </si>
+  <si>
+    <t>IRQS</t>
+  </si>
+  <si>
+    <t>Insert Require Statement</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Assert Statement </t>
+  </si>
+  <si>
+    <t>IAS</t>
+  </si>
+  <si>
+    <t>Insert Assert Statement</t>
+  </si>
+  <si>
+    <t>RRVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Revert Statement </t>
+  </si>
+  <si>
+    <t>IRVS</t>
+  </si>
+  <si>
+    <t>Insert Revert Statement</t>
+  </si>
+  <si>
+    <t>PUPI, PUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public ==&gt; [Private, Internal] </t>
+  </si>
+  <si>
+    <t>PRPU, PRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private ==&gt; [Public, Internal] </t>
+  </si>
+  <si>
+    <t>IPU, IPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal ==&gt; [Public, Private] </t>
+  </si>
+  <si>
+    <t>PUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure ==&gt; View </t>
+  </si>
+  <si>
+    <t>VPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View ==&gt; Pure </t>
+  </si>
+  <si>
+    <t>DPUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Pure Keyword </t>
+  </si>
+  <si>
+    <t>DVK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete View Keyword </t>
+  </si>
+  <si>
+    <t>DPAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Payable Keyword </t>
+  </si>
+  <si>
+    <t>IPAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Payable Keyword </t>
+  </si>
+  <si>
+    <t>VPUPR, VPUI, VPUE</t>
+  </si>
+  <si>
+    <t>Public ==&gt; [Private, Internal, External]</t>
+  </si>
+  <si>
+    <t>VPRPU, VPRI, VPRE</t>
+  </si>
+  <si>
+    <t>Private ==&gt; [Public, Internal, External]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEPU, VEPR, VEI </t>
+  </si>
+  <si>
+    <t>External ==&gt; [Public, Private, Internal]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIPU, VIPR, VIE </t>
+  </si>
+  <si>
+    <t>Internal ==&gt; [Public, Private, External]</t>
+  </si>
+  <si>
+    <t>LPUPR, LPUI</t>
+  </si>
+  <si>
+    <t>LPRPU, LPRI</t>
+  </si>
+  <si>
+    <t>LIPU, LIPR</t>
+  </si>
+  <si>
+    <t>Fu2019</t>
+  </si>
+  <si>
+    <t>No operators</t>
+  </si>
+  <si>
+    <t>Groce2018</t>
+  </si>
+  <si>
+    <t>\+ ==&gt; -</t>
+  </si>
+  <si>
+    <t>\+ ==&gt; *</t>
+  </si>
+  <si>
+    <t>\+ ==&gt; /</t>
+  </si>
+  <si>
+    <t>\+ ==&gt; %</t>
+  </si>
+  <si>
+    <t>-([^&gt;]) ==&gt; +\1</t>
+  </si>
+  <si>
+    <t>-([^&gt;]) ==&gt; *\1</t>
+  </si>
+  <si>
+    <t>-([^&gt;]) ==&gt; /\1</t>
+  </si>
+  <si>
+    <t>-([^&gt;]) ==&gt; %\1</t>
+  </si>
+  <si>
+    <t>([^/*])([^/*]) ==&gt; \1+\2</t>
+  </si>
+  <si>
+    <t>([^/*])([^/*]) ==&gt; \1-\2</t>
+  </si>
+  <si>
+    <t>([^/*])([^/*]) ==&gt; \1/\2</t>
+  </si>
+  <si>
+    <t>([^/*])([^/*]) ==&gt; \1%\2</t>
+  </si>
+  <si>
+    <t>([^/])/([^/]) ==&gt; \1+\2</t>
+  </si>
+  <si>
+    <t>([^/])/([^/]) ==&gt; \1-\2</t>
+  </si>
+  <si>
+    <t>([^/])/([^/]) ==&gt; \1*\2</t>
+  </si>
+  <si>
+    <t>([^/])/([^/]) ==&gt; \1%\2</t>
+  </si>
+  <si>
+    <t>% ==&gt; +</t>
+  </si>
+  <si>
+    <t>% ==&gt; -</t>
+  </si>
+  <si>
+    <t>% ==&gt; *</t>
+  </si>
+  <si>
+    <t>% ==&gt; /</t>
+  </si>
+  <si>
+    <t>!= ==&gt; ==</t>
+  </si>
+  <si>
+    <t>!= ==&gt; &lt;=</t>
+  </si>
+  <si>
+    <t>!= ==&gt; &gt;=</t>
+  </si>
+  <si>
+    <t>!= ==&gt; &gt;</t>
+  </si>
+  <si>
+    <t>!= ==&gt; &lt;</t>
+  </si>
+  <si>
+    <t>== ==&gt; !=</t>
+  </si>
+  <si>
+    <t>== ==&gt; &lt;=</t>
+  </si>
+  <si>
+    <t>== ==&gt; &gt;=</t>
+  </si>
+  <si>
+    <t>== ==&gt; &gt;</t>
+  </si>
+  <si>
+    <t>== ==&gt; &lt;</t>
+  </si>
+  <si>
+    <t>&gt;= ==&gt; ==</t>
+  </si>
+  <si>
+    <t>&gt;= ==&gt; !=</t>
+  </si>
+  <si>
+    <t>&gt;= ==&gt; &lt;</t>
+  </si>
+  <si>
+    <t>&gt;= ==&gt; &gt;</t>
+  </si>
+  <si>
+    <t>&lt;= ==&gt; ==</t>
+  </si>
+  <si>
+    <t>&lt;= ==&gt; !=</t>
+  </si>
+  <si>
+    <t>&lt;= ==&gt; &lt;</t>
+  </si>
+  <si>
+    <t>&lt;= ==&gt; &gt;</t>
+  </si>
+  <si>
+    <t>&lt; ==&gt; &gt;</t>
+  </si>
+  <si>
+    <t>&lt; ==&gt; ==</t>
+  </si>
+  <si>
+    <t>([^-])&gt; ==&gt; \1&lt;</t>
+  </si>
+  <si>
+    <t>([^-])&gt; ==&gt; \1==</t>
+  </si>
+  <si>
+    <t>-([^&gt;]) ==&gt; \1</t>
+  </si>
+  <si>
+    <t>(\D)(\d+)(\D) ==&gt; \g&lt;1&gt;0\3</t>
+  </si>
+  <si>
+    <t>(\D)(\d+)(\D) ==&gt; \g&lt;1&gt;1\3</t>
+  </si>
+  <si>
+    <t>(\D)(\d+)(\D) ==&gt; \g&lt;1&gt;-1\3</t>
+  </si>
+  <si>
+    <t>(\D)(\d+)(\D) ==&gt; \1\2+1\3</t>
+  </si>
+  <si>
+    <t>(\D)(\d+)(\D) ==&gt; \1\2-1\3</t>
+  </si>
+  <si>
+    <t>&amp;&amp; ==&gt; ||</t>
+  </si>
+  <si>
+    <t>\|\| ==&gt; &amp;&amp;</t>
+  </si>
+  <si>
+    <t>! ==&gt;</t>
+  </si>
+  <si>
+    <t>([^&amp;])&amp;([^&amp;]) ==&gt; \1|\2</t>
+  </si>
+  <si>
+    <t>([^|])\|([^|]) ==&gt; \1&amp;\2</t>
+  </si>
+  <si>
+    <t>(^\s*)(\S+.*)\n ==&gt; \1\2\n\1break;\n</t>
+  </si>
+  <si>
+    <t>Not sure what this does</t>
+  </si>
+  <si>
+    <t>(cid:2).+(cid:2) ==&gt; (cid:2)(cid:2)</t>
+  </si>
+  <si>
+    <t>Honig2019</t>
+  </si>
+  <si>
+    <t>IMR</t>
+  </si>
+  <si>
+    <t>[ += ==&gt; =+, -= ==&gt; =- ]</t>
+  </si>
+  <si>
+    <t>CBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaces a conditional operation with its inclusive or exclusive counterpart </t>
+  </si>
+  <si>
+    <t>CIR</t>
+  </si>
+  <si>
+    <t>Replaces a conditional operation with its inverse</t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>Replaces a math operator with its inverse</t>
+  </si>
+  <si>
+    <t>IIR</t>
+  </si>
+  <si>
+    <t>Replaces an increments statement with its inverse</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Peng2019</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Statement with division by zero is inserted.</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>Arithmetic operation resulting in overflow is inserted.</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Arithmetic operation resulting in underflow is inserted.</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>An expression using block timestamp is used in an assignment.</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>A code block containing a check using the value of tx.origin is inserted.</t>
+  </si>
+  <si>
+    <t>Wang2019a</t>
+  </si>
+  <si>
+    <t>Wang2019b</t>
+  </si>
+  <si>
+    <t>Mutations at the transaction level. Deployment transaction:</t>
+  </si>
+  <si>
+    <t>(1) we allow the values of state variables to be carried forward across multiple test runs and</t>
+  </si>
+  <si>
+    <t>(2) reset the state periodically, say, after every n transactions.</t>
+  </si>
+  <si>
+    <t>Mutations at the transaction level. Non-deployment transactions:</t>
+  </si>
+  <si>
+    <t>(2) we randomly select a transaction in the sequence, and replace it with a random new transaction;</t>
+  </si>
+  <si>
+    <t>(3) we randomly select a transaction in the sequence, and delete it;</t>
+  </si>
+  <si>
+    <t>(4) we randomly select a transaction in the sequence, and insert a random new transaction before it.</t>
+  </si>
+  <si>
+    <t>Wu2019a</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>Arithmetic Operator Insertion</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>Conditional Operator Replacement</t>
+  </si>
+  <si>
+    <t>LOR</t>
+  </si>
+  <si>
+    <t>Logical Operator Replacement</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>Assignment Operator Replacement</t>
+  </si>
+  <si>
+    <t>SDL</t>
+  </si>
+  <si>
+    <t>Statement Deletion</t>
+  </si>
+  <si>
+    <t>SDL is more general than ESD</t>
+  </si>
+  <si>
+    <t>RVR</t>
+  </si>
+  <si>
+    <t>Return Value Replacement</t>
+  </si>
+  <si>
+    <t>RVR is probably more general</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>Condition Statement Change</t>
+  </si>
+  <si>
+    <t>CSC is probably more general</t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
+    <t>Function State Keyword Change</t>
+  </si>
+  <si>
+    <t>FVC</t>
+  </si>
+  <si>
+    <t>Function Visibility Keyword Chang</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>Data Location Keyword Replacement</t>
+  </si>
+  <si>
+    <t>VTR</t>
+  </si>
+  <si>
+    <t>Variable Type Keyword Replacement</t>
+  </si>
+  <si>
+    <t>PKD</t>
+  </si>
+  <si>
+    <t>Payable Keyword Deletion</t>
+  </si>
+  <si>
+    <t>DKD</t>
+  </si>
+  <si>
+    <t>Delete Keyword Deletion</t>
+  </si>
+  <si>
+    <t>VDTSCS</t>
+  </si>
+  <si>
+    <t>GVC</t>
+  </si>
+  <si>
+    <t>Global Variable Change</t>
+  </si>
+  <si>
+    <t>GVC is probably more general</t>
+  </si>
+  <si>
+    <t>MFR</t>
+  </si>
+  <si>
+    <t>Mathematical Functions Replacement</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>Address Variable Replacement</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Ether Unit Replacement</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Time Unit Replacement</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>Require Statement Deletion</t>
+  </si>
+  <si>
+    <t>Require Statement Change</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Assert Statement Deletion</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>Assert Statement Change</t>
+  </si>
+  <si>
+    <t>REI</t>
+  </si>
+  <si>
+    <t>SEI</t>
+  </si>
+  <si>
+    <t>Remove Event Invocation</t>
+  </si>
+  <si>
+    <t>Swap Event Invocations</t>
+  </si>
+  <si>
+    <t>STRME</t>
+  </si>
+  <si>
+    <t>MESTR</t>
+  </si>
+  <si>
+    <t>change Memory to Storage</t>
+  </si>
+  <si>
+    <t>change Storage to Memory</t>
+  </si>
+  <si>
+    <t>DFM</t>
+  </si>
+  <si>
+    <t>IMF</t>
+  </si>
+  <si>
+    <t>Delete Function Modifier</t>
+  </si>
+  <si>
+    <t>Insert Modifier on Function</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>Remove One Parent</t>
+  </si>
+  <si>
+    <t>FGVZ</t>
+  </si>
+  <si>
+    <t>FGNVZ</t>
+  </si>
+  <si>
+    <t>Modify Function Gas Value to Non-Zero</t>
+  </si>
+  <si>
+    <t>Modify Function Gas Value to Zero</t>
+  </si>
+  <si>
+    <t>Remove self-destruct from a Function</t>
+  </si>
+  <si>
+    <t>Change Modifier to false</t>
+  </si>
+  <si>
+    <t>Change Modifier to true</t>
+  </si>
+  <si>
+    <t>Swap selfdestruct's location</t>
+  </si>
+  <si>
+    <t>Change a Function's name to Constructor</t>
+  </si>
+  <si>
+    <t>Removes a modifier application</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Their description</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Our operator</t>
+  </si>
+  <si>
+    <t>Their operator</t>
+  </si>
+  <si>
+    <t>Binary Operator Replacement</t>
+  </si>
+  <si>
+    <t>Expression Statement Deletion</t>
+  </si>
+  <si>
+    <t>Identifier with same Type, Scope, and Constancy Replacement</t>
+  </si>
+  <si>
+    <t>Jump Statement Replacement or Deletion</t>
+  </si>
+  <si>
+    <t>Literal Replacement Address</t>
+  </si>
+  <si>
+    <t>LR_B</t>
+  </si>
+  <si>
+    <t>Literal Replacement Boolean</t>
+  </si>
+  <si>
+    <t>{(true,false), (false,true)}</t>
+  </si>
+  <si>
+    <t>Literal Replacement Integer</t>
+  </si>
+  <si>
+    <t>LR_S</t>
+  </si>
+  <si>
+    <t>Literal Replacement String</t>
+  </si>
+  <si>
+    <t>R-Value Address Replacement</t>
+  </si>
+  <si>
+    <t>{(msg.sender,tx.origin), (msg.sender,address(0)), (msg.sender,address(this)), (tx.origin,msg.sender), (tx.origin,address(0)), (tx.origin,address(this)), (address(0),msg.sender), (address(0),tx.origin), (address(0),address(this)), (address(this),msg.sender), (address(this),tx.origin), (address(this),address(0))}</t>
+  </si>
+  <si>
+    <t>Tag for storage local or state mutability Replacement or Deletion</t>
+  </si>
+  <si>
+    <t>Unary Operator Replacement or Deletion</t>
+  </si>
+  <si>
+    <t>Variable Declaration with same Type, Scope, and Constancy Swap</t>
+  </si>
+  <si>
+    <t>{(/=,%=), (%=,/=)}</t>
+  </si>
+  <si>
+    <t>continued</t>
+  </si>
+  <si>
+    <t>{(=,+=), (=,-=), (=,*=), (+=,=), (+=,-=), (+=,*=), (-=,=), (-=,+=), (-=,*=), (*=,=), (*=,+=), (*=,-=)}</t>
+  </si>
+  <si>
+    <t>{(&gt;&gt;=,&lt;&lt;=), (&lt;&lt;=,&gt;&gt;=)}</t>
+  </si>
+  <si>
+    <t>{(|=,^=), (|=,&amp;=), (^=,|=), (^=,&amp;=), (&amp;=,|=), (&amp;=,^=)}</t>
+  </si>
+  <si>
+    <t>{(&amp;&amp;,||), (||,&amp;&amp;)}</t>
+  </si>
+  <si>
+    <t>{(+,-), (+,*), (-,+), (-,*), (*,+), (*,-)}</t>
+  </si>
+  <si>
+    <t>{(/,%), (%,/)}</t>
+  </si>
+  <si>
+    <t>{(&lt;,&gt;), (&lt;,&lt;=), (&lt;,&gt;=), (&lt;,==), (&lt;,!=), (&gt;,&lt;), (&gt;,&lt;=), (&gt;,&gt;=), (&gt;,==), (&gt;,!=), (&lt;=,&lt;), (&lt;=,&gt;), (&lt;=,&gt;=), (&lt;=,==), (&lt;=,!=), (&gt;=,&lt;), (&gt;=,&gt;), (&gt;=,&lt;=), (&gt;=,==), (&gt;=,!=), (==,&lt;), (==,&gt;), (==,&lt;=), (==,&gt;=), (==,!=), (!=,&lt;), (!=,&gt;), (!=,&lt;=), (!=,&gt;=), (!=,==)}</t>
+  </si>
+  <si>
+    <t>{(&gt;&gt;,&lt;&lt;), (&lt;&lt;,&gt;&gt;)}</t>
+  </si>
+  <si>
+    <t>{(|,^), (|,&amp;), (^,|), (^,&amp;), (&amp;,|), (&amp;,^)}</t>
+  </si>
+  <si>
+    <t>{(break,continue), (break,true), (continue,break), (continue,true)}</t>
+  </si>
+  <si>
+    <t>{(return,throw), (return,true), (throw,return), (throw,true)}</t>
+  </si>
+  <si>
+    <t>{(memory,storage), (memory,calldata), (memory,), (storage,memory), (storage,calldata), (storage,), (calldata,memory), (calldata,storage), (calldata,)}</t>
+  </si>
+  <si>
+    <t>{(public,private), (public,internal), (public,external), (public,constant), (public,), (private,public), (private,internal), (private,external), (private,constant), (private,), (internal,public), (internal,private), (internal,external), (internal,constant), (internal,), (external,public), (external,private), (external,internal), (external,constant), (external,), (constant,public), (constant,private), (constant,internal), (constant,external), (constant,)}</t>
+  </si>
+  <si>
+    <t>{('...','')}</t>
+  </si>
+  <si>
+    <t>{(0x...,address(.)), (0x...,msg.sender), (0x...,tx.origin), (0x...,address(0)), (0x...,address(this)), (address(.),0x...), (address(.),msg.sender), (address(.),tx.origin), (address(.),address(0)), (address(.),address(this))}</t>
+  </si>
+  <si>
+    <t>{(-, )}</t>
+  </si>
+  <si>
+    <t>{(++,--), (++, ), (--,++), (--, )}</t>
+  </si>
+  <si>
+    <t>{(!, )}</t>
+  </si>
+  <si>
+    <t>{(payable, )}</t>
+  </si>
+  <si>
+    <t>{(integer,integer+1), (integer,integer-1), (integer,0), (integer,1)}</t>
+  </si>
+  <si>
+    <t>{(~, )}</t>
+  </si>
+  <si>
+    <t>No: Deprecated syntax =+ and =- not supported</t>
+  </si>
+  <si>
+    <t>No: Forgotten</t>
+  </si>
+  <si>
+    <t>No insertions</t>
+  </si>
+  <si>
     <t>No OO related mutations</t>
   </si>
   <si>
-    <t>TSR</t>
-  </si>
-  <si>
-    <t>Transfer to Send Replacement</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>Send to Call Replacement</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Send to Transfer Replacement</t>
-  </si>
-  <si>
-    <t>CSR</t>
-  </si>
-  <si>
-    <t>Call to Send Replacement</t>
-  </si>
-  <si>
-    <t>CTR</t>
-  </si>
-  <si>
-    <t>Call to Transfer Replacement</t>
-  </si>
-  <si>
-    <t>ARevR</t>
-  </si>
-  <si>
-    <t>Assert to Revert Replacement</t>
-  </si>
-  <si>
-    <t>AReqR</t>
-  </si>
-  <si>
-    <t>Assert to Require Replacement</t>
-  </si>
-  <si>
-    <t>RevReqR</t>
-  </si>
-  <si>
-    <t>Revert to Require Replacement</t>
-  </si>
-  <si>
-    <t>RevAR</t>
-  </si>
-  <si>
-    <t>Revert to Assert Replacement</t>
-  </si>
-  <si>
-    <t>ReqAR</t>
-  </si>
-  <si>
-    <t>Require to Assert Replacement</t>
-  </si>
-  <si>
-    <t>ReqRevR</t>
-  </si>
-  <si>
-    <t>Require to Revert Replacement</t>
-  </si>
-  <si>
-    <t>AReq</t>
-  </si>
-  <si>
-    <t>Add Require</t>
-  </si>
-  <si>
-    <t>No insertions</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>Add Assert</t>
-  </si>
-  <si>
-    <t>ARev</t>
-  </si>
-  <si>
-    <t>Add Revert</t>
-  </si>
-  <si>
-    <t>DReq</t>
-  </si>
-  <si>
-    <t>Delete Require</t>
-  </si>
-  <si>
-    <t>DRev</t>
-  </si>
-  <si>
-    <t>Delete Revert</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>Delete Assert</t>
-  </si>
-  <si>
-    <t>RAR</t>
-  </si>
-  <si>
-    <t>TMR</t>
-  </si>
-  <si>
-    <t>Tx.origin to Msg.sender Replacement</t>
-  </si>
-  <si>
-    <t>MTR</t>
-  </si>
-  <si>
-    <t>Msg.sender to Tx.origin Replacement</t>
-  </si>
-  <si>
-    <t>RSF</t>
-  </si>
-  <si>
-    <t>SSL</t>
-  </si>
-  <si>
-    <t>LR_A</t>
-  </si>
-  <si>
-    <t>CAA</t>
-  </si>
-  <si>
-    <t>Change Address to another Address</t>
-  </si>
-  <si>
-    <t>CDG</t>
-  </si>
-  <si>
-    <t>Increase and Decrease in Gas amount</t>
-  </si>
-  <si>
-    <t>CCV</t>
-  </si>
-  <si>
-    <t>Change in any Constant Value</t>
-  </si>
-  <si>
-    <t>MORD</t>
-  </si>
-  <si>
-    <t>CMT</t>
-  </si>
-  <si>
-    <t>MORD does not replace by true/false but by other modifiers</t>
-  </si>
-  <si>
-    <t>CMF</t>
-  </si>
-  <si>
-    <t>CCN</t>
-  </si>
-  <si>
-    <t>Change Constructor Name to something else</t>
-  </si>
-  <si>
-    <t>CFC</t>
-  </si>
-  <si>
-    <t>Bugrara2019</t>
-  </si>
-  <si>
-    <t>See https://www.kspec.io/simplemultisig/tests.html</t>
-  </si>
-  <si>
-    <t>Manual mutations of EVM code, ABI encodings and public key operations.</t>
-  </si>
-  <si>
-    <t>Chapman2019</t>
-  </si>
-  <si>
-    <t>SCEC</t>
-  </si>
-  <si>
-    <t>Switch Call Expression Casting</t>
-  </si>
-  <si>
-    <t>MALNZ</t>
-  </si>
-  <si>
-    <t>Modify Address Literal to Non-Zero</t>
-  </si>
-  <si>
-    <t>MALZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Address Literal to Zero </t>
-  </si>
-  <si>
-    <t>MDTV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Transfer Value </t>
-  </si>
-  <si>
-    <t>MDSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Send Value </t>
-  </si>
-  <si>
-    <t>MDVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Call Value </t>
-  </si>
-  <si>
-    <t>TRS, TRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer ==&gt; [ Send, Call] </t>
-  </si>
-  <si>
-    <t>STR, SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send ==&gt; [Transfer, Call] </t>
-  </si>
-  <si>
-    <t>CTR, CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call ==&gt; [Transfer, Send] </t>
-  </si>
-  <si>
-    <t>RSDC</t>
-  </si>
-  <si>
-    <t>Remove Selfdestruct Call</t>
-  </si>
-  <si>
-    <t>ISDC</t>
-  </si>
-  <si>
-    <t>Insert Selfdestruct Call</t>
-  </si>
-  <si>
-    <t>RSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Suicide Call </t>
-  </si>
-  <si>
-    <t>ISC</t>
-  </si>
-  <si>
-    <t>Insert Suicide Call</t>
-  </si>
-  <si>
-    <t>RRQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Require Statement </t>
-  </si>
-  <si>
-    <t>IRQS</t>
-  </si>
-  <si>
-    <t>Insert Require Statement</t>
-  </si>
-  <si>
-    <t>RAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Assert Statement </t>
-  </si>
-  <si>
-    <t>IAS</t>
-  </si>
-  <si>
-    <t>Insert Assert Statement</t>
-  </si>
-  <si>
-    <t>RRVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Revert Statement </t>
-  </si>
-  <si>
-    <t>IRVS</t>
-  </si>
-  <si>
-    <t>Insert Revert Statement</t>
-  </si>
-  <si>
-    <t>PUPI, PUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public ==&gt; [Private, Internal] </t>
-  </si>
-  <si>
-    <t>PRPU, PRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private ==&gt; [Public, Internal] </t>
-  </si>
-  <si>
-    <t>IPU, IPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal ==&gt; [Public, Private] </t>
-  </si>
-  <si>
-    <t>PUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pure ==&gt; View </t>
-  </si>
-  <si>
-    <t>VPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View ==&gt; Pure </t>
-  </si>
-  <si>
-    <t>DPUK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Pure Keyword </t>
-  </si>
-  <si>
-    <t>DVK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete View Keyword </t>
-  </si>
-  <si>
-    <t>DPAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Payable Keyword </t>
-  </si>
-  <si>
-    <t>IPAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert Payable Keyword </t>
-  </si>
-  <si>
-    <t>VPUPR, VPUI, VPUE</t>
-  </si>
-  <si>
-    <t>Public ==&gt; [Private, Internal, External]</t>
-  </si>
-  <si>
-    <t>VPRPU, VPRI, VPRE</t>
-  </si>
-  <si>
-    <t>Private ==&gt; [Public, Internal, External]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEPU, VEPR, VEI </t>
-  </si>
-  <si>
-    <t>External ==&gt; [Public, Private, Internal]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIPU, VIPR, VIE </t>
-  </si>
-  <si>
-    <t>Internal ==&gt; [Public, Private, External]</t>
-  </si>
-  <si>
-    <t>LPUPR, LPUI</t>
-  </si>
-  <si>
-    <t>LPRPU, LPRI</t>
-  </si>
-  <si>
-    <t>LIPU, LIPR</t>
-  </si>
-  <si>
-    <t>Fu2019</t>
-  </si>
-  <si>
-    <t>No operators</t>
-  </si>
-  <si>
-    <t>Groce2018</t>
-  </si>
-  <si>
-    <t>\+ ==&gt; -</t>
-  </si>
-  <si>
-    <t>\+ ==&gt; *</t>
-  </si>
-  <si>
-    <t>\+ ==&gt; /</t>
-  </si>
-  <si>
-    <t>\+ ==&gt; %</t>
-  </si>
-  <si>
-    <t>-([^&gt;]) ==&gt; +\1</t>
-  </si>
-  <si>
-    <t>-([^&gt;]) ==&gt; *\1</t>
-  </si>
-  <si>
-    <t>-([^&gt;]) ==&gt; /\1</t>
-  </si>
-  <si>
-    <t>-([^&gt;]) ==&gt; %\1</t>
-  </si>
-  <si>
-    <t>([^/*])([^/*]) ==&gt; \1+\2</t>
-  </si>
-  <si>
-    <t>([^/*])([^/*]) ==&gt; \1-\2</t>
-  </si>
-  <si>
-    <t>([^/*])([^/*]) ==&gt; \1/\2</t>
-  </si>
-  <si>
-    <t>([^/*])([^/*]) ==&gt; \1%\2</t>
-  </si>
-  <si>
-    <t>([^/])/([^/]) ==&gt; \1+\2</t>
-  </si>
-  <si>
-    <t>([^/])/([^/]) ==&gt; \1-\2</t>
-  </si>
-  <si>
-    <t>([^/])/([^/]) ==&gt; \1*\2</t>
-  </si>
-  <si>
-    <t>([^/])/([^/]) ==&gt; \1%\2</t>
-  </si>
-  <si>
-    <t>% ==&gt; +</t>
-  </si>
-  <si>
-    <t>% ==&gt; -</t>
-  </si>
-  <si>
-    <t>% ==&gt; *</t>
-  </si>
-  <si>
-    <t>% ==&gt; /</t>
-  </si>
-  <si>
-    <t>!= ==&gt; ==</t>
-  </si>
-  <si>
-    <t>!= ==&gt; &lt;=</t>
-  </si>
-  <si>
-    <t>!= ==&gt; &gt;=</t>
-  </si>
-  <si>
-    <t>!= ==&gt; &gt;</t>
-  </si>
-  <si>
-    <t>!= ==&gt; &lt;</t>
-  </si>
-  <si>
-    <t>== ==&gt; !=</t>
-  </si>
-  <si>
-    <t>== ==&gt; &lt;=</t>
-  </si>
-  <si>
-    <t>== ==&gt; &gt;=</t>
-  </si>
-  <si>
-    <t>== ==&gt; &gt;</t>
-  </si>
-  <si>
-    <t>== ==&gt; &lt;</t>
-  </si>
-  <si>
-    <t>&gt;= ==&gt; ==</t>
-  </si>
-  <si>
-    <t>&gt;= ==&gt; !=</t>
-  </si>
-  <si>
-    <t>&gt;= ==&gt; &lt;</t>
-  </si>
-  <si>
-    <t>&gt;= ==&gt; &gt;</t>
-  </si>
-  <si>
-    <t>&lt;= ==&gt; ==</t>
-  </si>
-  <si>
-    <t>&lt;= ==&gt; !=</t>
-  </si>
-  <si>
-    <t>&lt;= ==&gt; &lt;</t>
-  </si>
-  <si>
-    <t>&lt;= ==&gt; &gt;</t>
-  </si>
-  <si>
-    <t>&lt; ==&gt; &gt;</t>
-  </si>
-  <si>
-    <t>&lt; ==&gt; ==</t>
-  </si>
-  <si>
-    <t>([^-])&gt; ==&gt; \1&lt;</t>
-  </si>
-  <si>
-    <t>([^-])&gt; ==&gt; \1==</t>
-  </si>
-  <si>
-    <t>-([^&gt;]) ==&gt; \1</t>
-  </si>
-  <si>
-    <t>(\D)(\d+)(\D) ==&gt; \g&lt;1&gt;0\3</t>
-  </si>
-  <si>
-    <t>(\D)(\d+)(\D) ==&gt; \g&lt;1&gt;1\3</t>
-  </si>
-  <si>
-    <t>(\D)(\d+)(\D) ==&gt; \g&lt;1&gt;-1\3</t>
-  </si>
-  <si>
-    <t>(\D)(\d+)(\D) ==&gt; \1\2+1\3</t>
-  </si>
-  <si>
-    <t>(\D)(\d+)(\D) ==&gt; \1\2-1\3</t>
-  </si>
-  <si>
-    <t>&amp;&amp; ==&gt; ||</t>
-  </si>
-  <si>
-    <t>\|\| ==&gt; &amp;&amp;</t>
-  </si>
-  <si>
-    <t>! ==&gt;</t>
-  </si>
-  <si>
-    <t>([^&amp;])&amp;([^&amp;]) ==&gt; \1|\2</t>
-  </si>
-  <si>
-    <t>([^|])\|([^|]) ==&gt; \1&amp;\2</t>
-  </si>
-  <si>
-    <t>(^\s*)(\S+.*)\n ==&gt; \1\2\n\1break;\n</t>
-  </si>
-  <si>
-    <t>Not sure what this does</t>
-  </si>
-  <si>
-    <t>(cid:2).+(cid:2) ==&gt; (cid:2)(cid:2)</t>
-  </si>
-  <si>
-    <t>Honig2019</t>
-  </si>
-  <si>
-    <t>IMR</t>
-  </si>
-  <si>
-    <t>[ += ==&gt; =+, -= ==&gt; =- ]</t>
-  </si>
-  <si>
-    <t>Deprecated syntax =+ and =- not supported</t>
-  </si>
-  <si>
-    <t>CBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replaces a conditional operation with its inclusive or exclusive counterpart </t>
-  </si>
-  <si>
-    <t>CIR</t>
-  </si>
-  <si>
-    <t>Replaces a conditional operation with its inverse</t>
-  </si>
-  <si>
-    <t>MIR</t>
-  </si>
-  <si>
-    <t>Replaces a math operator with its inverse</t>
-  </si>
-  <si>
-    <t>IIR</t>
-  </si>
-  <si>
-    <t>Replaces an increments statement with its inverse</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Peng2019</t>
-  </si>
-  <si>
-    <t>DI</t>
-  </si>
-  <si>
-    <t>Statement with division by zero is inserted.</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t>Arithmetic operation resulting in overflow is inserted.</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Arithmetic operation resulting in underflow is inserted.</t>
-  </si>
-  <si>
-    <t>TU</t>
-  </si>
-  <si>
-    <t>An expression using block timestamp is used in an assignment.</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>A code block containing a check using the value of tx.origin is inserted.</t>
-  </si>
-  <si>
-    <t>Wang2019a</t>
-  </si>
-  <si>
-    <t>Wang2019b</t>
-  </si>
-  <si>
-    <t>Mutations at the transaction level. Deployment transaction:</t>
-  </si>
-  <si>
-    <t>(1) we allow the values of state variables to be carried forward across multiple test runs and</t>
-  </si>
-  <si>
-    <t>(2) reset the state periodically, say, after every n transactions.</t>
-  </si>
-  <si>
-    <t>Mutations at the transaction level. Non-deployment transactions:</t>
-  </si>
-  <si>
-    <t>if two transactions of a sequence operate on the same contract state variable, we switch their order;</t>
-  </si>
-  <si>
-    <t>(2) we randomly select a transaction in the sequence, and replace it with a random new transaction;</t>
-  </si>
-  <si>
-    <t>(3) we randomly select a transaction in the sequence, and delete it;</t>
-  </si>
-  <si>
-    <t>(4) we randomly select a transaction in the sequence, and insert a random new transaction before it.</t>
-  </si>
-  <si>
-    <t>Wu2019a</t>
-  </si>
-  <si>
-    <t>AOI</t>
-  </si>
-  <si>
-    <t>Arithmetic Operator Insertion</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>Conditional Operator Replacement</t>
-  </si>
-  <si>
-    <t>LOR</t>
-  </si>
-  <si>
-    <t>Logical Operator Replacement</t>
-  </si>
-  <si>
-    <t>ASR</t>
-  </si>
-  <si>
-    <t>Assignment Operator Replacement</t>
-  </si>
-  <si>
-    <t>SDL</t>
-  </si>
-  <si>
-    <t>Statement Deletion</t>
-  </si>
-  <si>
-    <t>SDL is more general than ESD</t>
-  </si>
-  <si>
-    <t>RVR</t>
-  </si>
-  <si>
-    <t>Return Value Replacement</t>
-  </si>
-  <si>
-    <t>RVR is probably more general</t>
-  </si>
-  <si>
-    <t>CSC</t>
-  </si>
-  <si>
-    <t>Condition Statement Change</t>
-  </si>
-  <si>
-    <t>CSC is probably more general</t>
-  </si>
-  <si>
-    <t>FSC</t>
-  </si>
-  <si>
-    <t>Function State Keyword Change</t>
-  </si>
-  <si>
-    <t>FVC</t>
-  </si>
-  <si>
-    <t>Function Visibility Keyword Chang</t>
-  </si>
-  <si>
-    <t>DLR</t>
-  </si>
-  <si>
-    <t>Data Location Keyword Replacement</t>
-  </si>
-  <si>
-    <t>VTR</t>
-  </si>
-  <si>
-    <t>Variable Type Keyword Replacement</t>
-  </si>
-  <si>
     <t>No type level mutations</t>
   </si>
   <si>
-    <t>PKD</t>
-  </si>
-  <si>
-    <t>Payable Keyword Deletion</t>
-  </si>
-  <si>
-    <t>DKD</t>
-  </si>
-  <si>
-    <t>Delete Keyword Deletion</t>
-  </si>
-  <si>
-    <t>Forgotten</t>
-  </si>
-  <si>
-    <t>VDTSCS</t>
-  </si>
-  <si>
-    <t>GVC</t>
-  </si>
-  <si>
-    <t>Global Variable Change</t>
-  </si>
-  <si>
-    <t>GVC is probably more general</t>
-  </si>
-  <si>
-    <t>MFR</t>
-  </si>
-  <si>
-    <t>Mathematical Functions Replacement</t>
-  </si>
-  <si>
-    <t>AVR</t>
-  </si>
-  <si>
-    <t>Address Variable Replacement</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Ether Unit Replacement</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Time Unit Replacement</t>
-  </si>
-  <si>
-    <t>RSD</t>
-  </si>
-  <si>
-    <t>Require Statement Deletion</t>
-  </si>
-  <si>
-    <t>Require Statement Change</t>
-  </si>
-  <si>
-    <t>ASD</t>
-  </si>
-  <si>
-    <t>Assert Statement Deletion</t>
-  </si>
-  <si>
-    <t>ASC</t>
-  </si>
-  <si>
-    <t>Assert Statement Change</t>
-  </si>
-  <si>
-    <t>REI</t>
-  </si>
-  <si>
-    <t>SEI</t>
-  </si>
-  <si>
-    <t>Remove Event Invocation</t>
-  </si>
-  <si>
-    <t>Swap Event Invocations</t>
-  </si>
-  <si>
-    <t>STRME</t>
-  </si>
-  <si>
-    <t>MESTR</t>
-  </si>
-  <si>
-    <t>change Memory to Storage</t>
-  </si>
-  <si>
-    <t>change Storage to Memory</t>
-  </si>
-  <si>
-    <t>DFM</t>
-  </si>
-  <si>
-    <t>IMF</t>
-  </si>
-  <si>
-    <t>Delete Function Modifier</t>
-  </si>
-  <si>
-    <t>Insert Modifier on Function</t>
-  </si>
-  <si>
-    <t>ROP</t>
-  </si>
-  <si>
-    <t>Remove One Parent</t>
-  </si>
-  <si>
-    <t>FGVZ</t>
-  </si>
-  <si>
-    <t>FGNVZ</t>
-  </si>
-  <si>
-    <t>Modify Function Gas Value to Non-Zero</t>
-  </si>
-  <si>
-    <t>Modify Function Gas Value to Zero</t>
-  </si>
-  <si>
-    <t>This does not seem to be used</t>
-  </si>
-  <si>
-    <t>Remove self-destruct from a Function</t>
-  </si>
-  <si>
-    <t>Change Modifier to false</t>
-  </si>
-  <si>
-    <t>Change Modifier to true</t>
-  </si>
-  <si>
-    <t>Swap selfdestruct's location</t>
-  </si>
-  <si>
-    <t>Change a Function's name to Constructor</t>
-  </si>
-  <si>
-    <t>Removes a modifier application</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>Citation</t>
-  </si>
-  <si>
-    <t>Their description</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
-    <t>Our operator</t>
-  </si>
-  <si>
-    <t>Their operator</t>
-  </si>
-  <si>
-    <t>Binary Operator Replacement</t>
-  </si>
-  <si>
-    <t>Expression Statement Deletion</t>
-  </si>
-  <si>
-    <t>Identifier with same Type, Scope, and Constancy Replacement</t>
-  </si>
-  <si>
-    <t>Jump Statement Replacement or Deletion</t>
-  </si>
-  <si>
-    <t>Literal Replacement Address</t>
-  </si>
-  <si>
-    <t>LR_B</t>
-  </si>
-  <si>
-    <t>Literal Replacement Boolean</t>
-  </si>
-  <si>
-    <t>{(true,false), (false,true)}</t>
-  </si>
-  <si>
-    <t>Literal Replacement Integer</t>
-  </si>
-  <si>
-    <t>LR_S</t>
-  </si>
-  <si>
-    <t>Literal Replacement String</t>
-  </si>
-  <si>
-    <t>R-Value Address Replacement</t>
-  </si>
-  <si>
-    <t>{(msg.sender,tx.origin), (msg.sender,address(0)), (msg.sender,address(this)), (tx.origin,msg.sender), (tx.origin,address(0)), (tx.origin,address(this)), (address(0),msg.sender), (address(0),tx.origin), (address(0),address(this)), (address(this),msg.sender), (address(this),tx.origin), (address(this),address(0))}</t>
-  </si>
-  <si>
-    <t>TRD</t>
-  </si>
-  <si>
-    <t>Tag for storage local or state mutability Replacement or Deletion</t>
-  </si>
-  <si>
-    <t>Unary Operator Replacement or Deletion</t>
-  </si>
-  <si>
-    <t>Variable Declaration with same Type, Scope, and Constancy Swap</t>
-  </si>
-  <si>
-    <t>ours</t>
-  </si>
-  <si>
-    <t>{(/=,%=), (%=,/=)}</t>
-  </si>
-  <si>
-    <t>continued</t>
-  </si>
-  <si>
-    <t>{(=,+=), (=,-=), (=,*=), (+=,=), (+=,-=), (+=,*=), (-=,=), (-=,+=), (-=,*=), (*=,=), (*=,+=), (*=,-=)}</t>
-  </si>
-  <si>
-    <t>{(&gt;&gt;=,&lt;&lt;=), (&lt;&lt;=,&gt;&gt;=)}</t>
-  </si>
-  <si>
-    <t>{(|=,^=), (|=,&amp;=), (^=,|=), (^=,&amp;=), (&amp;=,|=), (&amp;=,^=)}</t>
-  </si>
-  <si>
-    <t>{(&amp;&amp;,||), (||,&amp;&amp;)}</t>
-  </si>
-  <si>
-    <t>{(+,-), (+,*), (-,+), (-,*), (*,+), (*,-)}</t>
-  </si>
-  <si>
-    <t>{(/,%), (%,/)}</t>
-  </si>
-  <si>
-    <t>{(&lt;,&gt;), (&lt;,&lt;=), (&lt;,&gt;=), (&lt;,==), (&lt;,!=), (&gt;,&lt;), (&gt;,&lt;=), (&gt;,&gt;=), (&gt;,==), (&gt;,!=), (&lt;=,&lt;), (&lt;=,&gt;), (&lt;=,&gt;=), (&lt;=,==), (&lt;=,!=), (&gt;=,&lt;), (&gt;=,&gt;), (&gt;=,&lt;=), (&gt;=,==), (&gt;=,!=), (==,&lt;), (==,&gt;), (==,&lt;=), (==,&gt;=), (==,!=), (!=,&lt;), (!=,&gt;), (!=,&lt;=), (!=,&gt;=), (!=,==)}</t>
-  </si>
-  <si>
-    <t>{(&gt;&gt;,&lt;&lt;), (&lt;&lt;,&gt;&gt;)}</t>
-  </si>
-  <si>
-    <t>{(|,^), (|,&amp;), (^,|), (^,&amp;), (&amp;,|), (&amp;,^)}</t>
-  </si>
-  <si>
-    <t>{(break,continue), (break,true), (continue,break), (continue,true)}</t>
-  </si>
-  <si>
-    <t>{(return,throw), (return,true), (throw,return), (throw,true)}</t>
-  </si>
-  <si>
-    <t>{(memory,storage), (memory,calldata), (memory,), (storage,memory), (storage,calldata), (storage,), (calldata,memory), (calldata,storage), (calldata,)}</t>
-  </si>
-  <si>
-    <t>{(public,private), (public,internal), (public,external), (public,constant), (public,), (private,public), (private,internal), (private,external), (private,constant), (private,), (internal,public), (internal,private), (internal,external), (internal,constant), (internal,), (external,public), (external,private), (external,internal), (external,constant), (external,), (constant,public), (constant,private), (constant,internal), (constant,external), (constant,)}</t>
-  </si>
-  <si>
-    <t>{('...','')}</t>
-  </si>
-  <si>
-    <t>{(0x...,address(.)), (0x...,msg.sender), (0x...,tx.origin), (0x...,address(0)), (0x...,address(this)), (address(.),0x...), (address(.),msg.sender), (address(.),tx.origin), (address(.),address(0)), (address(.),address(this))}</t>
-  </si>
-  <si>
-    <t>{(-, )}</t>
-  </si>
-  <si>
-    <t>{(++,--), (++, ), (--,++), (--, )}</t>
-  </si>
-  <si>
-    <t>{(!, )}</t>
-  </si>
-  <si>
-    <t>{(payable, )}</t>
-  </si>
-  <si>
-    <t>{(integer,integer+1), (integer,integer-1), (integer,0), (integer,1)}</t>
-  </si>
-  <si>
-    <t>{(~, )}</t>
+    <t>No: signed integers are rare</t>
+  </si>
+  <si>
+    <t>No: This does not seem to be use</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>(1) if two transactions of a sequence operate on the same contract state variable, we switch their order;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1333,27 +1346,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1362,21 +1394,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="25" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1705,16 +1757,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245:XFD245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" customWidth="1"/>
     <col min="6" max="6" width="85.83203125" style="5" customWidth="1"/>
@@ -1722,1901 +1774,1863 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" t="s">
-        <v>396</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F3" t="s">
-        <v>398</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" t="s">
-        <v>399</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F5" t="s">
-        <v>400</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" t="s">
-        <v>401</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F7" t="s">
-        <v>402</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>364</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" t="s">
-        <v>403</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+        <v>364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F9" t="s">
-        <v>404</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
+        <v>364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
-      </c>
-      <c r="F10" t="s">
-        <v>405</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11" t="s">
-        <v>406</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
-      </c>
-      <c r="F12"/>
+        <v>173</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>373</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
-      </c>
-      <c r="F13"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>381</v>
-      </c>
-      <c r="F14" t="s">
-        <v>407</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>373</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
+        <v>364</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
-      </c>
-      <c r="F15" t="s">
-        <v>408</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
+        <v>364</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>382</v>
-      </c>
-      <c r="F16" t="s">
-        <v>412</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>386</v>
-      </c>
-      <c r="F18" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>373</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
-      </c>
-      <c r="F19" t="s">
-        <v>411</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>373</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>389</v>
-      </c>
-      <c r="F20" t="s">
-        <v>390</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>391</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>392</v>
-      </c>
-      <c r="F21" t="s">
-        <v>409</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>391</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
-      </c>
-      <c r="F22" t="s">
-        <v>416</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>373</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
-      </c>
-      <c r="F23" t="s">
-        <v>410</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>373</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>393</v>
-      </c>
-      <c r="F24" t="s">
-        <v>415</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>373</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>342</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
-      </c>
-      <c r="F25" t="s">
-        <v>414</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>373</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>397</v>
-      </c>
-      <c r="F26" t="s">
-        <v>413</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>373</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F27" t="s">
-        <v>418</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>373</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
-      </c>
-      <c r="F28"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>369</v>
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
+        <v>129</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>359</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>360</v>
-      </c>
-      <c r="F34" s="6"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>361</v>
-      </c>
-      <c r="F35" s="6"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="E37" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
+        <v>129</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>369</v>
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>369</v>
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>369</v>
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" t="s">
-        <v>16</v>
+        <v>256</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>373</v>
-      </c>
-      <c r="B52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>45</v>
+        <v>364</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>349</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
-      </c>
-      <c r="F52" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>373</v>
-      </c>
-      <c r="B53" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>386</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>373</v>
-      </c>
-      <c r="B54" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>386</v>
+      </c>
+      <c r="F54" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>373</v>
-      </c>
-      <c r="B55" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
+        <v>386</v>
+      </c>
+      <c r="F55" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>373</v>
-      </c>
-      <c r="B56" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>369</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>373</v>
-      </c>
-      <c r="B57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>364</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>346</v>
-      </c>
-      <c r="F57" s="6"/>
+        <v>386</v>
+      </c>
+      <c r="F57" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>373</v>
-      </c>
-      <c r="B58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>357</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>362</v>
+        <v>386</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>373</v>
-      </c>
-      <c r="B59" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>386</v>
+      </c>
+      <c r="F59" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>373</v>
-      </c>
-      <c r="B60" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>386</v>
+      </c>
+      <c r="F60" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>373</v>
-      </c>
-      <c r="B61" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>386</v>
+      </c>
+      <c r="F61" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>373</v>
-      </c>
-      <c r="B62" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="F62"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>373</v>
-      </c>
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>134</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="F63"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>373</v>
-      </c>
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>364</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>347</v>
-      </c>
-      <c r="F64" s="6"/>
+        <v>372</v>
+      </c>
+      <c r="F64" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>373</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>72</v>
+        <v>386</v>
+      </c>
+      <c r="F65" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" t="s">
         <v>373</v>
       </c>
-      <c r="B66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" t="s">
-        <v>348</v>
-      </c>
-      <c r="E66" t="s">
-        <v>351</v>
-      </c>
-      <c r="F66" s="6"/>
+      <c r="F66" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>373</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C67" t="s">
+        <v>374</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>72</v>
+        <v>375</v>
+      </c>
+      <c r="F67" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>373</v>
-      </c>
-      <c r="B68" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>377</v>
+      </c>
+      <c r="F68" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>373</v>
-      </c>
-      <c r="B69" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>378</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>379</v>
+      </c>
+      <c r="F69" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>373</v>
-      </c>
-      <c r="B70" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>380</v>
+      </c>
+      <c r="F70" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>373</v>
-      </c>
-      <c r="B71" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>382</v>
+      </c>
+      <c r="F71" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>373</v>
-      </c>
-      <c r="B72" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>386</v>
+      </c>
+      <c r="F72" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>373</v>
-      </c>
-      <c r="B73" t="s">
-        <v>259</v>
+        <v>364</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>386</v>
+      </c>
+      <c r="F73" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>373</v>
-      </c>
-      <c r="B74" t="s">
-        <v>259</v>
+        <v>364</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>383</v>
+      </c>
+      <c r="F74" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>373</v>
-      </c>
-      <c r="B75" t="s">
-        <v>259</v>
+        <v>364</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>270</v>
+        <v>386</v>
+      </c>
+      <c r="F75" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>373</v>
-      </c>
-      <c r="B76" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>262</v>
+        <v>386</v>
+      </c>
+      <c r="F76" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>373</v>
-      </c>
-      <c r="B77" t="s">
-        <v>259</v>
+        <v>364</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>368</v>
+        <v>386</v>
+      </c>
+      <c r="F77" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>373</v>
-      </c>
-      <c r="B78" t="s">
-        <v>259</v>
+        <v>364</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="E78" t="s">
-        <v>268</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F78"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B80" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
         <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E81" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E82" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B83" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E84" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="D87" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D88" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E89" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B90" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D90" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D91" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C92" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D92" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E92" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
         <v>293</v>
       </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>298</v>
-      </c>
       <c r="E93" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E94" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E95" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
         <v>14</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E97" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E98" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E101" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E102" t="s">
-        <v>318</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D103" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -3624,2006 +3638,2288 @@
       <c r="E104" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
       <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
         <v>4</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D106" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E108" t="s">
-        <v>101</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E109" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E111" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E113" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E114" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
       <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" t="s">
         <v>122</v>
       </c>
-      <c r="D115" t="s">
-        <v>125</v>
-      </c>
       <c r="E115" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
       <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
         <v>6</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>7</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
         <v>9</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D119" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D120" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E120" t="s">
-        <v>82</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B121" t="s">
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E123" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D124" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" t="s">
         <v>43</v>
-      </c>
-      <c r="E124" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D125" t="s">
+        <v>67</v>
+      </c>
+      <c r="E125" t="s">
         <v>68</v>
-      </c>
-      <c r="E125" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" t="s">
         <v>66</v>
-      </c>
-      <c r="E126" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D127" t="s">
+        <v>63</v>
+      </c>
+      <c r="E127" t="s">
         <v>64</v>
-      </c>
-      <c r="E127" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
       <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
         <v>20</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>21</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" t="s">
         <v>24</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D130" t="s">
+        <v>61</v>
+      </c>
+      <c r="E130" t="s">
         <v>62</v>
-      </c>
-      <c r="E130" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D131" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" t="s">
         <v>60</v>
-      </c>
-      <c r="E131" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" t="s">
         <v>58</v>
-      </c>
-      <c r="E132" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
       <c r="C133" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" t="s">
         <v>40</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>41</v>
-      </c>
-      <c r="E133" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
       <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
         <v>11</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
       <c r="C135" t="s">
+        <v>105</v>
+      </c>
+      <c r="D135" t="s">
         <v>108</v>
       </c>
-      <c r="D135" t="s">
-        <v>111</v>
-      </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B136" t="s">
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D136" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" t="s">
         <v>56</v>
-      </c>
-      <c r="E136" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D137" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" t="s">
         <v>54</v>
-      </c>
-      <c r="E137" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D138" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" t="s">
         <v>52</v>
-      </c>
-      <c r="E138" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" t="s">
         <v>38</v>
-      </c>
-      <c r="E139" t="s">
-        <v>39</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D140" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" t="s">
         <v>50</v>
-      </c>
-      <c r="E140" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B141" t="s">
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D141" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" t="s">
         <v>48</v>
-      </c>
-      <c r="E141" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
       <c r="C142" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" t="s">
         <v>45</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>46</v>
-      </c>
-      <c r="E142" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B143" t="s">
         <v>0</v>
       </c>
       <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
         <v>16</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>17</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B144" t="s">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E144" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B145" t="s">
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E146" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E147" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" t="s">
         <v>27</v>
-      </c>
-      <c r="E148" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
         <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E150" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" t="s">
         <v>32</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>33</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B152" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E152" t="s">
-        <v>76</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D154" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E154" t="s">
-        <v>78</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" t="s">
         <v>70</v>
-      </c>
-      <c r="E155" t="s">
-        <v>71</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D156" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E156" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D157" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E157" t="s">
-        <v>74</v>
-      </c>
-      <c r="F157" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
       <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
         <v>29</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>30</v>
-      </c>
-      <c r="E158" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="D159" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" t="s">
         <v>36</v>
-      </c>
-      <c r="E159" t="s">
-        <v>37</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B160" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E160" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B161" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E161" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B162" t="s">
+        <v>197</v>
+      </c>
+      <c r="E162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>365</v>
+      </c>
+      <c r="B163" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>365</v>
+      </c>
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" t="s">
         <v>200</v>
       </c>
-      <c r="E162" t="s">
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" t="s">
+        <v>199</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" t="s">
-        <v>374</v>
-      </c>
-      <c r="B163" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" t="s">
+        <v>199</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
         <v>202</v>
       </c>
-      <c r="C163" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" t="s">
-        <v>258</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" t="s">
-        <v>374</v>
-      </c>
-      <c r="B164" t="s">
-        <v>202</v>
-      </c>
-      <c r="C164" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" t="s">
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+      <c r="B167" t="s">
+        <v>199</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" t="s">
-        <v>374</v>
-      </c>
-      <c r="B165" t="s">
-        <v>202</v>
-      </c>
-      <c r="C165" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" t="s">
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>365</v>
+      </c>
+      <c r="B168" t="s">
+        <v>199</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" t="s">
-        <v>374</v>
-      </c>
-      <c r="B166" t="s">
-        <v>202</v>
-      </c>
-      <c r="C166" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>365</v>
+      </c>
+      <c r="B169" t="s">
+        <v>199</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="A167" t="s">
-        <v>374</v>
-      </c>
-      <c r="B167" t="s">
-        <v>202</v>
-      </c>
-      <c r="C167" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" t="s">
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>365</v>
+      </c>
+      <c r="B170" t="s">
+        <v>199</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" t="s">
-        <v>374</v>
-      </c>
-      <c r="B168" t="s">
-        <v>202</v>
-      </c>
-      <c r="C168" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" t="s">
+        <v>199</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" t="s">
-        <v>374</v>
-      </c>
-      <c r="B169" t="s">
-        <v>202</v>
-      </c>
-      <c r="C169" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>365</v>
+      </c>
+      <c r="B172" t="s">
+        <v>199</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" t="s">
-        <v>374</v>
-      </c>
-      <c r="B170" t="s">
-        <v>202</v>
-      </c>
-      <c r="C170" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" t="s">
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>365</v>
+      </c>
+      <c r="B173" t="s">
+        <v>199</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" t="s">
-        <v>374</v>
-      </c>
-      <c r="B171" t="s">
-        <v>202</v>
-      </c>
-      <c r="C171" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" t="s">
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>365</v>
+      </c>
+      <c r="B174" t="s">
+        <v>199</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" t="s">
-        <v>374</v>
-      </c>
-      <c r="B172" t="s">
-        <v>202</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>365</v>
+      </c>
+      <c r="B175" t="s">
+        <v>199</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" t="s">
-        <v>374</v>
-      </c>
-      <c r="B173" t="s">
-        <v>202</v>
-      </c>
-      <c r="C173" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>365</v>
+      </c>
+      <c r="B176" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" t="s">
-        <v>374</v>
-      </c>
-      <c r="B174" t="s">
-        <v>202</v>
-      </c>
-      <c r="C174" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" t="s">
-        <v>374</v>
-      </c>
-      <c r="B175" t="s">
-        <v>202</v>
-      </c>
-      <c r="C175" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" t="s">
-        <v>374</v>
-      </c>
-      <c r="B176" t="s">
-        <v>202</v>
-      </c>
-      <c r="C176" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B178" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B179" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B180" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B181" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B183" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B189" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B190" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B191" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B192" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B194" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B195" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B197" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B205" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B206" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B207" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B208" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B210" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B211" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E211" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E212" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B213" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E213" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B214" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E214" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B215" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E215" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B216" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E216" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E217" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B218" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D218" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E218" t="s">
-        <v>274</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B219" t="s">
+        <v>268</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D219" t="s">
+        <v>271</v>
+      </c>
+      <c r="E219" t="s">
         <v>272</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D219" t="s">
-        <v>275</v>
-      </c>
-      <c r="E219" t="s">
-        <v>276</v>
-      </c>
-      <c r="F219" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D220" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E220" t="s">
-        <v>282</v>
-      </c>
-      <c r="F220" s="5" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B221" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D221" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E221" t="s">
-        <v>280</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B222" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D222" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E222" t="s">
-        <v>278</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B223" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E223" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B224" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E224" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B225" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E225" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B226" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E226" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B227" t="s">
+        <v>280</v>
+      </c>
+      <c r="E227" t="s">
         <v>284</v>
-      </c>
-      <c r="E227" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B228" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E228" t="s">
-        <v>289</v>
+        <v>418</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B229" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E229" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B230" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E230" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
+        <v>365</v>
+      </c>
+      <c r="B231" t="s">
+        <v>280</v>
+      </c>
+      <c r="E231" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>410</v>
+      </c>
+      <c r="C234">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A234)</f>
+        <v>13</v>
+      </c>
+      <c r="D234" s="7">
+        <f>C234/C$260</f>
+        <v>6.8062827225130892E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>411</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ref="C235:C240" si="0">COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A235)</f>
+        <v>9</v>
+      </c>
+      <c r="D235" s="7">
+        <f>C235/C$260</f>
+        <v>4.712041884816754E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>413</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D236" s="7">
+        <f>C236/C$260</f>
+        <v>1.5706806282722512E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>412</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D237" s="7">
+        <f>C237/C$260</f>
+        <v>1.0471204188481676E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>408</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D238" s="7">
+        <f>C238/C$260</f>
+        <v>5.235602094240838E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>409</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D239" s="7">
+        <f>C239/C$260</f>
+        <v>5.235602094240838E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>414</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D240" s="7">
+        <f>C240/C$260</f>
+        <v>5.235602094240838E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="3" customFormat="1">
+      <c r="A241" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C241" s="3">
+        <f>SUM(C234:C240)</f>
+        <v>30</v>
+      </c>
+      <c r="D241" s="7">
+        <f>C241/C$260</f>
+        <v>0.15706806282722513</v>
+      </c>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A243)</f>
+        <v>58</v>
+      </c>
+      <c r="D243" s="7">
+        <f>C243/C$260</f>
+        <v>0.30366492146596857</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>44</v>
+      </c>
+      <c r="C244">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A244)</f>
+        <v>35</v>
+      </c>
+      <c r="D244" s="7">
+        <f>C244/C$260</f>
+        <v>0.18324607329842932</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A245)</f>
+        <v>21</v>
+      </c>
+      <c r="D245" s="7">
+        <f>C245/C$260</f>
+        <v>0.1099476439790576</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A246)</f>
+        <v>13</v>
+      </c>
+      <c r="D246" s="7">
+        <f>C246/C$260</f>
+        <v>6.8062827225130892E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>39</v>
+      </c>
+      <c r="C247">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A247)</f>
+        <v>12</v>
+      </c>
+      <c r="D247" s="7">
+        <f>C247/C$260</f>
+        <v>6.2827225130890049E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>112</v>
+      </c>
+      <c r="C248">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A248)</f>
+        <v>4</v>
+      </c>
+      <c r="D248" s="7">
+        <f>C248/C$260</f>
+        <v>2.0942408376963352E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>119</v>
+      </c>
+      <c r="C249">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A249)</f>
+        <v>4</v>
+      </c>
+      <c r="D249" s="7">
+        <f>C249/C$260</f>
+        <v>2.0942408376963352E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A250)</f>
+        <v>3</v>
+      </c>
+      <c r="D250" s="7">
+        <f>C250/C$260</f>
+        <v>1.5706806282722512E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>31</v>
+      </c>
+      <c r="C251">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A251)</f>
+        <v>3</v>
+      </c>
+      <c r="D251" s="7">
+        <f>C251/C$260</f>
+        <v>1.5706806282722512E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A252)</f>
+        <v>3</v>
+      </c>
+      <c r="D252" s="7">
+        <f>C252/C$260</f>
+        <v>1.5706806282722512E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A253)</f>
+        <v>2</v>
+      </c>
+      <c r="D253" s="7">
+        <f>C253/C$260</f>
+        <v>1.0471204188481676E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>105</v>
+      </c>
+      <c r="C254">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A254)</f>
+        <v>2</v>
+      </c>
+      <c r="D254" s="7">
+        <f>C254/C$260</f>
+        <v>1.0471204188481676E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>318</v>
+      </c>
+      <c r="C255">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A255)</f>
+        <v>1</v>
+      </c>
+      <c r="D255" s="7">
+        <f>C255/C$260</f>
+        <v>5.235602094240838E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
         <v>374</v>
       </c>
-      <c r="B231" t="s">
-        <v>284</v>
-      </c>
-      <c r="E231" t="s">
-        <v>292</v>
-      </c>
+      <c r="C256">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A256)</f>
+        <v>0</v>
+      </c>
+      <c r="D256" s="7">
+        <f>C256/C$260</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>378</v>
+      </c>
+      <c r="C257">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A257)</f>
+        <v>0</v>
+      </c>
+      <c r="D257" s="7">
+        <f>C257/C$260</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="3" customFormat="1">
+      <c r="A258" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C258" s="3">
+        <f>SUM(C243:C257)</f>
+        <v>161</v>
+      </c>
+      <c r="D258" s="7">
+        <f>C258/C$260</f>
+        <v>0.84293193717277481</v>
+      </c>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="1:6" s="3" customFormat="1">
+      <c r="D259" s="7"/>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="1:6" s="3" customFormat="1">
+      <c r="A260" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C260" s="3">
+        <f>C241+C258</f>
+        <v>191</v>
+      </c>
+      <c r="D260" s="7">
+        <f>C260/C$260</f>
+        <v>1</v>
+      </c>
+      <c r="F260" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F217">
-    <sortCondition descending="1" ref="A2:A217"/>
-    <sortCondition ref="B2:B217"/>
-    <sortCondition ref="D2:D217"/>
+  <sortState ref="A243:F258">
+    <sortCondition descending="1" ref="D243:D258"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="7300" windowWidth="22960" windowHeight="10920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="comoarison" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comoarison!$B$1:$B$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comoarison!$B$1:$B$255</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="420">
   <si>
     <t>Andesta2019</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Arithmetic Operator Replacement</t>
   </si>
   <si>
-    <t>LR_X</t>
-  </si>
-  <si>
     <t>CRP</t>
   </si>
   <si>
@@ -1249,12 +1246,6 @@
     <t>{(~, )}</t>
   </si>
   <si>
-    <t>No: Deprecated syntax =+ and =- not supported</t>
-  </si>
-  <si>
-    <t>No: Forgotten</t>
-  </si>
-  <si>
     <t>No insertions</t>
   </si>
   <si>
@@ -1264,12 +1255,6 @@
     <t>No type level mutations</t>
   </si>
   <si>
-    <t>No: signed integers are rare</t>
-  </si>
-  <si>
-    <t>No: This does not seem to be use</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1280,6 +1265,24 @@
   </si>
   <si>
     <t>(1) if two transactions of a sequence operate on the same contract state variable, we switch their order;</t>
+  </si>
+  <si>
+    <t>No because Deprecated syntax =+ and =- not supported</t>
+  </si>
+  <si>
+    <t>No because signed integers are rare</t>
+  </si>
+  <si>
+    <t>No because deprecated syntax =+ and =- not supported</t>
+  </si>
+  <si>
+    <t>Mutation operators that are out of scope</t>
+  </si>
+  <si>
+    <t>Mutation operators from related work covered</t>
+  </si>
+  <si>
+    <t>LR_*</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1349,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1379,8 +1382,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1395,8 +1400,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1412,6 +1418,7 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1427,6 +1434,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="25" builtinId="5"/>
   </cellStyles>
@@ -1757,906 +1765,902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245:XFD245"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238:XFD238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
-    <col min="6" max="6" width="85.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
         <v>182</v>
-      </c>
-      <c r="E4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
         <v>178</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
         <v>180</v>
-      </c>
-      <c r="E6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" t="s">
         <v>352</v>
-      </c>
-      <c r="E7" t="s">
-        <v>353</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
         <v>162</v>
-      </c>
-      <c r="E9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
         <v>184</v>
-      </c>
-      <c r="E11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
         <v>172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
         <v>158</v>
-      </c>
-      <c r="E13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
         <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
         <v>154</v>
-      </c>
-      <c r="E15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
         <v>150</v>
-      </c>
-      <c r="E16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
         <v>132</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
         <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
         <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
         <v>136</v>
-      </c>
-      <c r="E23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
         <v>140</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" t="s">
         <v>342</v>
-      </c>
-      <c r="E25" t="s">
-        <v>343</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
         <v>170</v>
-      </c>
-      <c r="E26" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
         <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" t="s">
         <v>174</v>
-      </c>
-      <c r="E28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s">
         <v>160</v>
-      </c>
-      <c r="E29" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" t="s">
         <v>349</v>
-      </c>
-      <c r="E31" t="s">
-        <v>350</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
         <v>156</v>
-      </c>
-      <c r="E32" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
         <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
         <v>152</v>
-      </c>
-      <c r="E34" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
         <v>148</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>130</v>
-      </c>
-      <c r="E36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
         <v>144</v>
-      </c>
-      <c r="E38" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
         <v>142</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" t="s">
         <v>190</v>
-      </c>
-      <c r="E41" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
         <v>192</v>
-      </c>
-      <c r="E42" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" t="s">
         <v>188</v>
-      </c>
-      <c r="E43" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" t="s">
         <v>176</v>
-      </c>
-      <c r="E44" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
         <v>186</v>
-      </c>
-      <c r="E45" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" t="s">
         <v>259</v>
-      </c>
-      <c r="E46" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" t="s">
         <v>261</v>
-      </c>
-      <c r="E47" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" t="s">
         <v>265</v>
-      </c>
-      <c r="E48" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D49" t="s">
         <v>256</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>257</v>
-      </c>
-      <c r="E49" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" t="s">
         <v>263</v>
-      </c>
-      <c r="E51" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -2665,18 +2669,18 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -2685,18 +2689,18 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
+        <v>385</v>
+      </c>
+      <c r="F53" t="s">
         <v>386</v>
-      </c>
-      <c r="F53" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -2705,18 +2709,18 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -2725,492 +2729,492 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D67" t="s">
+        <v>373</v>
+      </c>
+      <c r="E67" t="s">
         <v>374</v>
       </c>
-      <c r="D67" t="s">
-        <v>374</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>375</v>
-      </c>
-      <c r="F67" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C69" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" t="s">
+        <v>377</v>
+      </c>
+      <c r="E69" t="s">
         <v>378</v>
       </c>
-      <c r="D69" t="s">
-        <v>378</v>
-      </c>
-      <c r="E69" t="s">
-        <v>379</v>
-      </c>
       <c r="F69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E70" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" t="s">
         <v>380</v>
-      </c>
-      <c r="F70" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F71" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F78"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B79" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
         <v>288</v>
       </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>289</v>
-      </c>
-      <c r="E79" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -3221,416 +3225,416 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
+        <v>334</v>
+      </c>
+      <c r="E81" t="s">
         <v>335</v>
-      </c>
-      <c r="E81" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
+        <v>332</v>
+      </c>
+      <c r="E82" t="s">
         <v>333</v>
-      </c>
-      <c r="E82" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
       </c>
       <c r="D83" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" t="s">
         <v>295</v>
-      </c>
-      <c r="E83" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" t="s">
         <v>324</v>
-      </c>
-      <c r="E84" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
+        <v>290</v>
+      </c>
+      <c r="E85" t="s">
         <v>291</v>
-      </c>
-      <c r="E85" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
+        <v>302</v>
+      </c>
+      <c r="E86" t="s">
         <v>303</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>409</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" t="s">
         <v>316</v>
-      </c>
-      <c r="E87" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
+        <v>309</v>
+      </c>
+      <c r="E88" t="s">
         <v>310</v>
-      </c>
-      <c r="E88" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" t="s">
         <v>326</v>
-      </c>
-      <c r="E89" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" t="s">
         <v>306</v>
-      </c>
-      <c r="E90" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
+        <v>307</v>
+      </c>
+      <c r="E91" t="s">
         <v>308</v>
-      </c>
-      <c r="E91" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" t="s">
         <v>318</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>319</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" t="s">
         <v>293</v>
-      </c>
-      <c r="E93" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
+        <v>321</v>
+      </c>
+      <c r="E94" t="s">
         <v>322</v>
-      </c>
-      <c r="E94" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
+        <v>313</v>
+      </c>
+      <c r="E95" t="s">
         <v>314</v>
-      </c>
-      <c r="E95" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
         <v>13</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
+        <v>329</v>
+      </c>
+      <c r="E98" t="s">
         <v>330</v>
-      </c>
-      <c r="E98" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
+        <v>299</v>
+      </c>
+      <c r="E99" t="s">
         <v>300</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
+        <v>296</v>
+      </c>
+      <c r="E100" t="s">
         <v>297</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
+        <v>327</v>
+      </c>
+      <c r="E101" t="s">
         <v>328</v>
-      </c>
-      <c r="E101" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D102" t="s">
+        <v>311</v>
+      </c>
+      <c r="E102" t="s">
         <v>312</v>
-      </c>
-      <c r="E102" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" t="s">
         <v>95</v>
-      </c>
-      <c r="E103" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -3641,7 +3645,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
@@ -3658,2268 +3662,2203 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D106" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" t="s">
         <v>93</v>
-      </c>
-      <c r="E106" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" t="s">
         <v>83</v>
-      </c>
-      <c r="E107" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D108" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" t="s">
         <v>97</v>
-      </c>
-      <c r="E108" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
+        <v>80</v>
+      </c>
+      <c r="E109" t="s">
         <v>81</v>
-      </c>
-      <c r="E109" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" t="s">
         <v>112</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>113</v>
-      </c>
-      <c r="E110" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" t="s">
         <v>123</v>
-      </c>
-      <c r="E111" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="D112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" t="s">
         <v>117</v>
-      </c>
-      <c r="E112" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" t="s">
         <v>115</v>
-      </c>
-      <c r="E113" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E114" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30">
       <c r="A115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E115" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30">
       <c r="A116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
       <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" t="s">
         <v>119</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
+        <v>356</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="E116" t="s">
-        <v>357</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
       <c r="C117" t="s">
+        <v>419</v>
+      </c>
+      <c r="D117" t="s">
         <v>5</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>6</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
         <v>8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D119" t="s">
+        <v>76</v>
+      </c>
+      <c r="E119" t="s">
         <v>77</v>
-      </c>
-      <c r="E119" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D120" t="s">
+        <v>78</v>
+      </c>
+      <c r="E120" t="s">
         <v>79</v>
-      </c>
-      <c r="E120" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B121" t="s">
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
+        <v>102</v>
+      </c>
+      <c r="E121" t="s">
         <v>103</v>
-      </c>
-      <c r="E121" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
+        <v>98</v>
+      </c>
+      <c r="E122" t="s">
         <v>99</v>
-      </c>
-      <c r="E122" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
+        <v>100</v>
+      </c>
+      <c r="E123" t="s">
         <v>101</v>
-      </c>
-      <c r="E123" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" t="s">
         <v>42</v>
-      </c>
-      <c r="E124" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D125" t="s">
+        <v>66</v>
+      </c>
+      <c r="E125" t="s">
         <v>67</v>
-      </c>
-      <c r="E125" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" t="s">
         <v>65</v>
-      </c>
-      <c r="E126" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D127" t="s">
+        <v>62</v>
+      </c>
+      <c r="E127" t="s">
         <v>63</v>
-      </c>
-      <c r="E127" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
       <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
         <v>19</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>20</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" t="s">
         <v>23</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D130" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" t="s">
         <v>61</v>
-      </c>
-      <c r="E130" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" t="s">
         <v>59</v>
-      </c>
-      <c r="E131" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D132" t="s">
+        <v>56</v>
+      </c>
+      <c r="E132" t="s">
         <v>57</v>
-      </c>
-      <c r="E132" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
       <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
         <v>39</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>40</v>
-      </c>
-      <c r="E133" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
       <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
         <v>10</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>11</v>
-      </c>
-      <c r="E134" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D135" t="s">
+        <v>107</v>
+      </c>
+      <c r="E135" t="s">
         <v>108</v>
-      </c>
-      <c r="E135" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B136" t="s">
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D136" t="s">
+        <v>54</v>
+      </c>
+      <c r="E136" t="s">
         <v>55</v>
-      </c>
-      <c r="E136" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" t="s">
         <v>53</v>
-      </c>
-      <c r="E137" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D138" t="s">
+        <v>50</v>
+      </c>
+      <c r="E138" t="s">
         <v>51</v>
-      </c>
-      <c r="E138" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D139" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" t="s">
         <v>37</v>
-      </c>
-      <c r="E139" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D140" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" t="s">
         <v>49</v>
-      </c>
-      <c r="E140" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B141" t="s">
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" t="s">
         <v>47</v>
-      </c>
-      <c r="E141" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
       <c r="C142" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" t="s">
         <v>44</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>45</v>
-      </c>
-      <c r="E142" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B143" t="s">
         <v>0</v>
       </c>
       <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
         <v>15</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>16</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B144" t="s">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" t="s">
         <v>89</v>
-      </c>
-      <c r="E144" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B145" t="s">
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E145" t="s">
         <v>91</v>
-      </c>
-      <c r="E145" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
+        <v>86</v>
+      </c>
+      <c r="E146" t="s">
         <v>87</v>
-      </c>
-      <c r="E146" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
+        <v>84</v>
+      </c>
+      <c r="E147" t="s">
         <v>85</v>
-      </c>
-      <c r="E147" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" t="s">
         <v>26</v>
-      </c>
-      <c r="E148" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
         <v>13</v>
-      </c>
-      <c r="E149" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" t="s">
         <v>31</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>32</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B152" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D152" t="s">
+        <v>72</v>
+      </c>
+      <c r="E152" t="s">
         <v>73</v>
-      </c>
-      <c r="E152" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D154" t="s">
+        <v>74</v>
+      </c>
+      <c r="E154" t="s">
         <v>75</v>
-      </c>
-      <c r="E154" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D155" t="s">
+        <v>68</v>
+      </c>
+      <c r="E155" t="s">
         <v>69</v>
-      </c>
-      <c r="E155" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
       <c r="C156" t="s">
+        <v>104</v>
+      </c>
+      <c r="D156" t="s">
         <v>105</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>106</v>
-      </c>
-      <c r="E156" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D157" t="s">
+        <v>70</v>
+      </c>
+      <c r="E157" t="s">
         <v>71</v>
-      </c>
-      <c r="E157" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
       <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
         <v>28</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>29</v>
-      </c>
-      <c r="E158" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D159" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" t="s">
         <v>35</v>
-      </c>
-      <c r="E159" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B160" t="s">
+        <v>125</v>
+      </c>
+      <c r="E160" t="s">
         <v>126</v>
-      </c>
-      <c r="E160" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B162" t="s">
+        <v>196</v>
+      </c>
+      <c r="E162" t="s">
         <v>197</v>
-      </c>
-      <c r="E162" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B164" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
         <v>199</v>
-      </c>
-      <c r="C164" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B175" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B177" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B178" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B180" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B183" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B184" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B185" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B186" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B187" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B203" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B205" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E207" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B208" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E211" t="s">
+        <v>252</v>
+      </c>
+      <c r="F211" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B212" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E212" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B213" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E213" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B214" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E214" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B215" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E215" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B216" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C216" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E216" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B217" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B218" t="s">
+        <v>267</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D218" t="s">
         <v>268</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>269</v>
-      </c>
-      <c r="E218" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B219" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D219" t="s">
+        <v>270</v>
+      </c>
+      <c r="E219" t="s">
         <v>271</v>
-      </c>
-      <c r="E219" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B220" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D220" t="s">
+        <v>276</v>
+      </c>
+      <c r="E220" t="s">
         <v>277</v>
-      </c>
-      <c r="E220" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B221" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D221" t="s">
+        <v>274</v>
+      </c>
+      <c r="E221" t="s">
         <v>275</v>
-      </c>
-      <c r="E221" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B222" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D222" t="s">
+        <v>272</v>
+      </c>
+      <c r="E222" t="s">
         <v>273</v>
-      </c>
-      <c r="E222" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B223" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E223" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B224" t="s">
+        <v>279</v>
+      </c>
+      <c r="E224" t="s">
         <v>280</v>
       </c>
-      <c r="E224" t="s">
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>364</v>
+      </c>
+      <c r="B225" t="s">
+        <v>279</v>
+      </c>
+      <c r="E225" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>365</v>
-      </c>
-      <c r="B225" t="s">
-        <v>280</v>
-      </c>
-      <c r="E225" t="s">
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>364</v>
+      </c>
+      <c r="B226" t="s">
+        <v>279</v>
+      </c>
+      <c r="E226" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>365</v>
-      </c>
-      <c r="B226" t="s">
-        <v>280</v>
-      </c>
-      <c r="E226" t="s">
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>364</v>
+      </c>
+      <c r="B227" t="s">
+        <v>279</v>
+      </c>
+      <c r="E227" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>365</v>
-      </c>
-      <c r="B227" t="s">
-        <v>280</v>
-      </c>
-      <c r="E227" t="s">
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>364</v>
+      </c>
+      <c r="B228" t="s">
+        <v>279</v>
+      </c>
+      <c r="E228" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>364</v>
+      </c>
+      <c r="B229" t="s">
+        <v>279</v>
+      </c>
+      <c r="E229" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>365</v>
-      </c>
-      <c r="B228" t="s">
-        <v>280</v>
-      </c>
-      <c r="E228" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>365</v>
-      </c>
-      <c r="B229" t="s">
-        <v>280</v>
-      </c>
-      <c r="E229" t="s">
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>364</v>
+      </c>
+      <c r="B230" t="s">
+        <v>279</v>
+      </c>
+      <c r="E230" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>365</v>
-      </c>
-      <c r="B230" t="s">
-        <v>280</v>
-      </c>
-      <c r="E230" t="s">
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>364</v>
+      </c>
+      <c r="B231" t="s">
+        <v>279</v>
+      </c>
+      <c r="E231" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>365</v>
-      </c>
-      <c r="B231" t="s">
-        <v>280</v>
-      </c>
-      <c r="E231" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+    <row r="233" spans="1:6" s="3" customFormat="1">
+      <c r="A233" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C234">
         <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A234)</f>
+        <v>1</v>
+      </c>
+      <c r="D234" s="7">
+        <f t="shared" ref="D234:D239" si="0">C234/C$255</f>
+        <v>5.235602094240838E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>415</v>
+      </c>
+      <c r="C235">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A235)</f>
+        <v>3</v>
+      </c>
+      <c r="D235" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5706806282722512E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>407</v>
+      </c>
+      <c r="C236">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A236)</f>
         <v>13</v>
       </c>
-      <c r="D234" s="7">
-        <f>C234/C$260</f>
+      <c r="D236" s="7">
+        <f t="shared" si="0"/>
         <v>6.8062827225130892E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>408</v>
+      </c>
+      <c r="C237">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A237)</f>
+        <v>10</v>
+      </c>
+      <c r="D237" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2356020942408377E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>409</v>
+      </c>
+      <c r="C238">
+        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A238)</f>
+        <v>2</v>
+      </c>
+      <c r="D238" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0471204188481676E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="3" customFormat="1">
+      <c r="A239" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C235">
-        <f t="shared" ref="C235:C240" si="0">COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A235)</f>
-        <v>9</v>
-      </c>
-      <c r="D235" s="7">
-        <f>C235/C$260</f>
-        <v>4.712041884816754E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>413</v>
-      </c>
-      <c r="C236">
+      <c r="C239" s="3">
+        <f>SUM(C234:C238)</f>
+        <v>29</v>
+      </c>
+      <c r="D239" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D236" s="7">
-        <f>C236/C$260</f>
-        <v>1.5706806282722512E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
-        <v>412</v>
-      </c>
-      <c r="C237">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D237" s="7">
-        <f>C237/C$260</f>
-        <v>1.0471204188481676E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>408</v>
-      </c>
-      <c r="C238">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D238" s="7">
-        <f>C238/C$260</f>
-        <v>5.235602094240838E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" t="s">
-        <v>409</v>
-      </c>
-      <c r="C239">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D239" s="7">
-        <f>C239/C$260</f>
-        <v>5.235602094240838E-3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
-        <v>414</v>
-      </c>
-      <c r="C240">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D240" s="7">
-        <f>C240/C$260</f>
-        <v>5.235602094240838E-3</v>
-      </c>
+        <v>0.15183246073298429</v>
+      </c>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="D240" s="7"/>
     </row>
     <row r="241" spans="1:6" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C241" s="3">
-        <f>SUM(C234:C240)</f>
-        <v>30</v>
-      </c>
-      <c r="D241" s="7">
-        <f>C241/C$260</f>
-        <v>0.15706806282722513</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D241" s="8"/>
       <c r="F241" s="4"/>
     </row>
     <row r="242" spans="1:6">
-      <c r="D242" s="7"/>
+      <c r="A242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242">
+        <f t="shared" ref="C242:C252" si="1">COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A242)</f>
+        <v>58</v>
+      </c>
+      <c r="D242" s="7">
+        <f t="shared" ref="D242:D253" si="2">C242/C$255</f>
+        <v>0.30366492146596857</v>
+      </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C243">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A243)</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="D243" s="7">
-        <f>C243/C$260</f>
-        <v>0.30366492146596857</v>
+        <f t="shared" si="2"/>
+        <v>0.18324607329842932</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C244">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A244)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="D244" s="7">
-        <f>C244/C$260</f>
-        <v>0.18324607329842932</v>
+        <f t="shared" si="2"/>
+        <v>0.1099476439790576</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C245">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A245)</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="D245" s="7">
-        <f>C245/C$260</f>
-        <v>0.1099476439790576</v>
+        <f t="shared" si="2"/>
+        <v>7.3298429319371722E-2</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
+        <v>419</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C246">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A246)</f>
-        <v>13</v>
-      </c>
       <c r="D246" s="7">
-        <f>C246/C$260</f>
-        <v>6.8062827225130892E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.947643979057591E-2</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C247">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A247)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="D247" s="7">
-        <f>C247/C$260</f>
-        <v>6.2827225130890049E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0942408376963352E-2</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C248">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A248)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D248" s="7">
-        <f>C248/C$260</f>
-        <v>2.0942408376963352E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5706806282722512E-2</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="C249">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A249)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D249" s="7">
-        <f>C249/C$260</f>
-        <v>2.0942408376963352E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5706806282722512E-2</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C250">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A250)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D250" s="7">
-        <f>C250/C$260</f>
-        <v>1.5706806282722512E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0471204188481676E-2</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C251">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A251)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D251" s="7">
-        <f>C251/C$260</f>
-        <v>1.5706806282722512E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0471204188481676E-2</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="C252">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A252)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D252" s="7">
-        <f>C252/C$260</f>
-        <v>1.5706806282722512E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A253)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>5.235602094240838E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="3" customFormat="1">
+      <c r="A253" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C253" s="3">
+        <f>SUM(C242:C252)</f>
+        <v>162</v>
       </c>
       <c r="D253" s="7">
-        <f>C253/C$260</f>
-        <v>1.0471204188481676E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" t="s">
-        <v>105</v>
-      </c>
-      <c r="C254">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A254)</f>
-        <v>2</v>
-      </c>
-      <c r="D254" s="7">
-        <f>C254/C$260</f>
-        <v>1.0471204188481676E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
-        <v>318</v>
-      </c>
-      <c r="C255">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A255)</f>
+        <f t="shared" si="2"/>
+        <v>0.84816753926701571</v>
+      </c>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="1:6" s="3" customFormat="1">
+      <c r="D254" s="7"/>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="1:6" s="3" customFormat="1">
+      <c r="A255" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C255" s="3">
+        <f>C239+C253</f>
+        <v>191</v>
+      </c>
+      <c r="D255" s="7">
+        <f>C255/C$255</f>
         <v>1</v>
       </c>
-      <c r="D255" s="7">
-        <f>C255/C$260</f>
-        <v>5.235602094240838E-3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" t="s">
-        <v>374</v>
-      </c>
-      <c r="C256">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A256)</f>
-        <v>0</v>
-      </c>
-      <c r="D256" s="7">
-        <f>C256/C$260</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" t="s">
-        <v>378</v>
-      </c>
-      <c r="C257">
-        <f>COUNTIFS(B$2:B$231,"&lt;&gt;this",C$2:C$231,A257)</f>
-        <v>0</v>
-      </c>
-      <c r="D257" s="7">
-        <f>C257/C$260</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" s="3" customFormat="1">
-      <c r="A258" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C258" s="3">
-        <f>SUM(C243:C257)</f>
-        <v>161</v>
-      </c>
-      <c r="D258" s="7">
-        <f>C258/C$260</f>
-        <v>0.84293193717277481</v>
-      </c>
-      <c r="F258" s="4"/>
-    </row>
-    <row r="259" spans="1:6" s="3" customFormat="1">
-      <c r="D259" s="7"/>
-      <c r="F259" s="4"/>
-    </row>
-    <row r="260" spans="1:6" s="3" customFormat="1">
-      <c r="A260" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C260" s="3">
-        <f>C241+C258</f>
-        <v>191</v>
-      </c>
-      <c r="D260" s="7">
-        <f>C260/C$260</f>
-        <v>1</v>
-      </c>
-      <c r="F260" s="4"/>
+      <c r="F255" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A243:F258">
-    <sortCondition descending="1" ref="D243:D258"/>
+  <sortState ref="A234:F239">
+    <sortCondition ref="A234:A239"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
